--- a/Reports/report.xlsx
+++ b/Reports/report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
   <si>
     <t>date</t>
   </si>
@@ -39,28 +39,115 @@
     <t>status</t>
   </si>
   <si>
+    <t>2018-07-29</t>
+  </si>
+  <si>
+    <t>2018-07-30</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>2018-08-05 10:36:03.905423</t>
+  </si>
+  <si>
+    <t>2018-08-05 10:36:04.168175</t>
+  </si>
+  <si>
+    <t>2018-08-05 10:36:04.384125</t>
+  </si>
+  <si>
+    <t>1167903</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>kaspi</t>
+  </si>
+  <si>
+    <t>200109818393</t>
+  </si>
+  <si>
+    <t>200109874736</t>
+  </si>
+  <si>
+    <t>200109878110</t>
+  </si>
+  <si>
+    <t>200109878444</t>
+  </si>
+  <si>
+    <t>2018-07-29 00:00:21</t>
+  </si>
+  <si>
+    <t>2018-07-29 00:15:21</t>
+  </si>
+  <si>
+    <t>2018-07-30 00:15:21</t>
+  </si>
+  <si>
+    <t>2018-07-31 00:00:21</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1551182018410729235920851</t>
+  </si>
+  <si>
+    <t>0119222018200730001427822</t>
+  </si>
+  <si>
     <t>difference</t>
   </si>
   <si>
-    <t>2018-07-31</t>
-  </si>
-  <si>
-    <t>2018-07-31 00:00:21</t>
+    <t>2018-07-29 00:00:22</t>
+  </si>
+  <si>
+    <t>2018-07-30 00:00:21</t>
   </si>
   <si>
     <t>2018-07-31 00:00:22</t>
   </si>
   <si>
-    <t>1167903</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>kaspi</t>
-  </si>
-  <si>
-    <t>1551182018410729235920851</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1167904</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>1551182018410729235920851213</t>
@@ -421,13 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,6 +535,214 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>58040</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>11000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>12000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>13000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>11000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>12000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>13000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>58040</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -457,13 +752,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,6 +779,266 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>58041</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>21000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>22000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>23000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>24000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>21000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>22000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>23000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>24000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>123123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -530,28 +1085,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>123123</v>
+        <v>20000</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>65083</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -559,27 +1114,230 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>31001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>32001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>33001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>58041</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>31001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>32001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>33001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
         <v>1001</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
